--- a/sheetrm_10/tasks.xlsx
+++ b/sheetrm_10/tasks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C84027B-B1AF-2A4E-A148-DC76A48F6295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701383CD-357E-B04B-892B-0893E9707E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>This workbook keeps track of parking fees and the associated rates.</t>
   </si>
   <si>
-    <t>In sheet "Parking Charge Record", set the font of all cells to Arial, font size 12. On the bottom line, add a row named "Summary", sum the "Fee Amount," "Projected Fee Amount," and "Difference." and place the results in J551:L551. Highlight the cell with a 167.5 yuan parking fee in red font on a yellow background. Put the number of records whose parking duration have been more than 960 minutes in I551</t>
-  </si>
-  <si>
     <t>Format_Adjustment_Font_Name, Format_Adjustment_Font_Size, Value_Processing_Insert, Value_Processing_Calculate, Format_Adjustment_Font_Color, Format_Adjustment_Background_Fill, Format_Adjustment_Numeric_Format</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Format_Adjustment_Font_Color, Worksheet_Management_Create_Worksheet, Value_Processing_Insert, Value_Processing_Calculate, Chart_Designing_Chart_Position, Chart_Designing_Chart_Type, Chart_Designing_Chart_Data_Source, Value_Processing_Calculate</t>
+  </si>
+  <si>
+    <t>In sheet "Parking Charge Record", set the font of all cells to Arial, font size 12. On the bottom line, add a row named "Summary", sum the "Fee Amount," "Projected Fee Amount," and "Difference." and place the results in J551:L551. Highlight the cell with a 167.5 parking fee in red font on a yellow background. Put the number of records whose parking duration have been more than 960 minutes in I551</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1222,19 +1222,19 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="170">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -1248,16 +1248,16 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="102">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>13</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="170">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>9</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="136">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>13</v>
